--- a/macro/data/M2-GDP.xlsx
+++ b/macro/data/M2-GDP.xlsx
@@ -383,7 +383,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -420,6 +420,9 @@
       <c r="B4">
         <v>13.38</v>
       </c>
+      <c r="C4">
+        <v>21329.9</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
@@ -444,6 +447,9 @@
       <c r="B7">
         <v>14.39</v>
       </c>
+      <c r="C7">
+        <v>24043.4</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
@@ -468,6 +474,9 @@
       <c r="B10">
         <v>15.27</v>
       </c>
+      <c r="C10">
+        <v>25712.5</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
@@ -492,6 +501,9 @@
       <c r="B13">
         <v>13.99</v>
       </c>
+      <c r="C13">
+        <v>29194.3</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="2">
@@ -516,6 +528,9 @@
       <c r="B16">
         <v>14.83</v>
       </c>
+      <c r="C16">
+        <v>24086.4</v>
+      </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
@@ -540,6 +555,9 @@
       <c r="B19">
         <v>14.3</v>
       </c>
+      <c r="C19">
+        <v>26726.6</v>
+      </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
@@ -564,6 +582,9 @@
       <c r="B22">
         <v>13.6</v>
       </c>
+      <c r="C22">
+        <v>28333.3</v>
+      </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
@@ -588,6 +609,9 @@
       <c r="B25">
         <v>14.4</v>
       </c>
+      <c r="C25">
+        <v>31716.8</v>
+      </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
@@ -613,7 +637,7 @@
         <v>14.4</v>
       </c>
       <c r="C28">
-        <v>5.66</v>
+        <v>26295</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -640,7 +664,7 @@
         <v>14.7</v>
       </c>
       <c r="C31">
-        <v>6.04</v>
+        <v>29194.8</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -667,7 +691,7 @@
         <v>16.5</v>
       </c>
       <c r="C34">
-        <v>6.63</v>
+        <v>31257.3</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -694,7 +718,7 @@
         <v>16.78</v>
       </c>
       <c r="C37">
-        <v>6.74</v>
+        <v>34970.3</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -721,7 +745,7 @@
         <v>18.54</v>
       </c>
       <c r="C40">
-        <v>12.09</v>
+        <v>29825.5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -748,7 +772,7 @@
         <v>20.83</v>
       </c>
       <c r="C43">
-        <v>9.92</v>
+        <v>32537.3</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -775,7 +799,7 @@
         <v>20.67</v>
       </c>
       <c r="C46">
-        <v>10.37</v>
+        <v>35291.9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -802,7 +826,7 @@
         <v>19.6</v>
       </c>
       <c r="C49">
-        <v>13.96</v>
+        <v>39767.4</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -829,7 +853,7 @@
         <v>19.1</v>
       </c>
       <c r="C52">
-        <v>15.04</v>
+        <v>34544.6</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -856,7 +880,7 @@
         <v>16.2</v>
       </c>
       <c r="C55">
-        <v>17.42</v>
+        <v>38700.8</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -883,7 +907,7 @@
         <v>13.94</v>
       </c>
       <c r="C58">
-        <v>17.73</v>
+        <v>41855</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -910,7 +934,7 @@
         <v>14.6</v>
       </c>
       <c r="C61">
-        <v>16.99</v>
+        <v>46739.8</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -937,7 +961,7 @@
         <v>14</v>
       </c>
       <c r="C64">
-        <v>15.54</v>
+        <v>40453.3</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -964,7 +988,7 @@
         <v>15.67</v>
       </c>
       <c r="C67">
-        <v>14.72</v>
+        <v>44793.1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -991,7 +1015,7 @@
         <v>17.92</v>
       </c>
       <c r="C70">
-        <v>14.1</v>
+        <v>48047.8</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1018,7 +1042,7 @@
         <v>17.57</v>
       </c>
       <c r="C73">
-        <v>33.55</v>
+        <v>54024.8</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1045,7 +1069,7 @@
         <v>18.8</v>
       </c>
       <c r="C76">
-        <v>38.3</v>
+        <v>47078.9</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1072,7 +1096,7 @@
         <v>18.43</v>
       </c>
       <c r="C79">
-        <v>35.63</v>
+        <v>52673.3</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -1099,7 +1123,7 @@
         <v>16.83</v>
       </c>
       <c r="C82">
-        <v>33.12</v>
+        <v>56064.7</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -1126,7 +1150,7 @@
         <v>16.94</v>
       </c>
       <c r="C85">
-        <v>14.86</v>
+        <v>63621.6</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -1153,7 +1177,7 @@
         <v>17.3</v>
       </c>
       <c r="C88">
-        <v>16.1</v>
+        <v>57177</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -1180,7 +1204,7 @@
         <v>17.06</v>
       </c>
       <c r="C91">
-        <v>16.76</v>
+        <v>64809.6</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -1207,7 +1231,7 @@
         <v>18.45</v>
       </c>
       <c r="C94">
-        <v>17.36</v>
+        <v>69524.3</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -1234,7 +1258,7 @@
         <v>16.72</v>
       </c>
       <c r="C97">
-        <v>17.77</v>
+        <v>78721.39999999999</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -1261,7 +1285,7 @@
         <v>16.29</v>
       </c>
       <c r="C100">
-        <v>22.28</v>
+        <v>69410.39999999999</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -1288,7 +1312,7 @@
         <v>17.37</v>
       </c>
       <c r="C103">
-        <v>22.34</v>
+        <v>78769</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -1315,7 +1339,7 @@
         <v>15.29</v>
       </c>
       <c r="C106">
-        <v>21.43</v>
+        <v>82541.89999999999</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -1342,7 +1366,7 @@
         <v>17.82</v>
       </c>
       <c r="C109">
-        <v>21.92</v>
+        <v>88794.3</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -1369,7 +1393,7 @@
         <v>25.51</v>
       </c>
       <c r="C112">
-        <v>6.92</v>
+        <v>74053.10000000001</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -1396,7 +1420,7 @@
         <v>28.46</v>
       </c>
       <c r="C115">
-        <v>7.08</v>
+        <v>83981.3</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -1423,7 +1447,7 @@
         <v>29.31</v>
       </c>
       <c r="C118">
-        <v>8.029999999999999</v>
+        <v>90014.10000000001</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -1450,7 +1474,7 @@
         <v>27.68</v>
       </c>
       <c r="C121">
-        <v>11.54</v>
+        <v>101032.8</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -1477,7 +1501,7 @@
         <v>22.5</v>
       </c>
       <c r="C124">
-        <v>22.56</v>
+        <v>87616.7</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -1504,7 +1528,7 @@
         <v>18.46</v>
       </c>
       <c r="C127">
-        <v>23.58</v>
+        <v>99532.39999999999</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -1531,7 +1555,7 @@
         <v>18.96</v>
       </c>
       <c r="C130">
-        <v>23.34</v>
+        <v>106238.7</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -1558,7 +1582,7 @@
         <v>19.72</v>
       </c>
       <c r="C133">
-        <v>18.68</v>
+        <v>119642.5</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -1585,7 +1609,7 @@
         <v>16.6</v>
       </c>
       <c r="C136">
-        <v>19.53</v>
+        <v>104641.3</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -1612,7 +1636,7 @@
         <v>15.9</v>
       </c>
       <c r="C139">
-        <v>18.29</v>
+        <v>119174.3</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -1639,7 +1663,7 @@
         <v>13</v>
       </c>
       <c r="C142">
-        <v>19.37</v>
+        <v>126981.6</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -1666,7 +1690,7 @@
         <v>13.6</v>
       </c>
       <c r="C145">
-        <v>18.49</v>
+        <v>138503.3</v>
       </c>
     </row>
     <row r="146" spans="1:3">
@@ -1693,7 +1717,7 @@
         <v>13.4</v>
       </c>
       <c r="C148">
-        <v>12.13</v>
+        <v>117593.9</v>
       </c>
     </row>
     <row r="149" spans="1:3">
@@ -1720,7 +1744,7 @@
         <v>13.6</v>
       </c>
       <c r="C151">
-        <v>11.07</v>
+        <v>131682.5</v>
       </c>
     </row>
     <row r="152" spans="1:3">
@@ -1747,7 +1771,7 @@
         <v>14.8</v>
       </c>
       <c r="C154">
-        <v>10.22</v>
+        <v>138622.2</v>
       </c>
     </row>
     <row r="155" spans="1:3">
@@ -1774,7 +1798,7 @@
         <v>13.8</v>
       </c>
       <c r="C157">
-        <v>10.13</v>
+        <v>152468.9</v>
       </c>
     </row>
     <row r="158" spans="1:3">
@@ -1801,7 +1825,7 @@
         <v>15.7</v>
       </c>
       <c r="C160">
-        <v>10.06</v>
+        <v>129747</v>
       </c>
     </row>
     <row r="161" spans="1:3">
@@ -1828,7 +1852,7 @@
         <v>14</v>
       </c>
       <c r="C163">
-        <v>9.210000000000001</v>
+        <v>143967</v>
       </c>
     </row>
     <row r="164" spans="1:3">
@@ -1855,7 +1879,7 @@
         <v>14.2</v>
       </c>
       <c r="C166">
-        <v>9.42</v>
+        <v>152905.3</v>
       </c>
     </row>
     <row r="167" spans="1:3">
@@ -1882,7 +1906,7 @@
         <v>13.6</v>
       </c>
       <c r="C169">
-        <v>9.539999999999999</v>
+        <v>168625.1</v>
       </c>
     </row>
     <row r="170" spans="1:3">
@@ -1909,7 +1933,7 @@
         <v>12.1</v>
       </c>
       <c r="C172">
-        <v>7.87</v>
+        <v>140618.3</v>
       </c>
     </row>
     <row r="173" spans="1:3">
@@ -1936,7 +1960,7 @@
         <v>14.7</v>
       </c>
       <c r="C175">
-        <v>8.48</v>
+        <v>156461.3</v>
       </c>
     </row>
     <row r="176" spans="1:3">
@@ -1963,7 +1987,7 @@
         <v>12.9</v>
       </c>
       <c r="C178">
-        <v>8.57</v>
+        <v>165711.9</v>
       </c>
     </row>
     <row r="179" spans="1:3">
@@ -1990,7 +2014,7 @@
         <v>12.2</v>
       </c>
       <c r="C181">
-        <v>11.89</v>
+        <v>181182.5</v>
       </c>
     </row>
     <row r="182" spans="1:3">
@@ -2017,7 +2041,7 @@
         <v>11.6</v>
       </c>
       <c r="C184">
-        <v>9.710000000000001</v>
+        <v>150986.7</v>
       </c>
     </row>
     <row r="185" spans="1:3">
@@ -2044,7 +2068,7 @@
         <v>11.8</v>
       </c>
       <c r="C187">
-        <v>10.34</v>
+        <v>168503</v>
       </c>
     </row>
     <row r="188" spans="1:3">
@@ -2071,7 +2095,7 @@
         <v>13.1</v>
       </c>
       <c r="C190">
-        <v>16.16</v>
+        <v>176710.4</v>
       </c>
     </row>
     <row r="191" spans="1:3">
@@ -2098,7 +2122,7 @@
         <v>13.3</v>
       </c>
       <c r="C193">
-        <v>6.32</v>
+        <v>192851.9</v>
       </c>
     </row>
     <row r="194" spans="1:3">
@@ -2125,7 +2149,7 @@
         <v>13.4</v>
       </c>
       <c r="C196">
-        <v>12.7</v>
+        <v>161456.3</v>
       </c>
     </row>
     <row r="197" spans="1:3">
@@ -2152,7 +2176,7 @@
         <v>11.8</v>
       </c>
       <c r="C199">
-        <v>14.74</v>
+        <v>180615</v>
       </c>
     </row>
     <row r="200" spans="1:3">
@@ -2179,7 +2203,7 @@
         <v>11.5</v>
       </c>
       <c r="C202">
-        <v>8.65</v>
+        <v>190362.7</v>
       </c>
     </row>
     <row r="203" spans="1:3">
@@ -2206,7 +2230,7 @@
         <v>11.3</v>
       </c>
       <c r="C205">
-        <v>9.960000000000001</v>
+        <v>211151.4</v>
       </c>
     </row>
     <row r="206" spans="1:3">
@@ -2233,7 +2257,7 @@
         <v>10.1</v>
       </c>
       <c r="C208">
-        <v>13.98</v>
+        <v>180385.3</v>
       </c>
     </row>
     <row r="209" spans="1:3">
@@ -2260,7 +2284,7 @@
         <v>9.1</v>
       </c>
       <c r="C211">
-        <v>11.99</v>
+        <v>200558.7</v>
       </c>
     </row>
     <row r="212" spans="1:3">
@@ -2287,7 +2311,7 @@
         <v>9</v>
       </c>
       <c r="C214">
-        <v>11.95</v>
+        <v>211595.5</v>
       </c>
     </row>
     <row r="215" spans="1:3">
@@ -2314,7 +2338,7 @@
         <v>8.1</v>
       </c>
       <c r="C217">
-        <v>11.15</v>
+        <v>234582.2</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -2341,7 +2365,7 @@
         <v>8.199999999999999</v>
       </c>
       <c r="C220">
-        <v>10.02</v>
+        <v>198783.1</v>
       </c>
     </row>
     <row r="221" spans="1:3">
@@ -2368,7 +2392,7 @@
         <v>8</v>
       </c>
       <c r="C223">
-        <v>9.82</v>
+        <v>220178</v>
       </c>
     </row>
     <row r="224" spans="1:3">
@@ -2379,12 +2403,31 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="225" spans="1:2">
+    <row r="225" spans="1:3">
       <c r="A225" s="2">
         <v>43343</v>
       </c>
       <c r="B225">
         <v>8.199999999999999</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" s="2">
+        <v>43373</v>
+      </c>
+      <c r="B226">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C226">
+        <v>231937.7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" s="2">
+        <v>43404</v>
+      </c>
+      <c r="B227">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
